--- a/hw1/hw01_code/prob1/hw1_completion_status.xlsx
+++ b/hw1/hw01_code/prob1/hw1_completion_status.xlsx
@@ -1,26 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20369"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D16AA2-39BA-46C9-A1B0-8A006A40E2DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{ED0078A5-D2FA-4925-A357-10D5ADB57DB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="86">
   <si>
     <t>double</t>
   </si>
@@ -275,6 +285,9 @@
   </si>
   <si>
     <t>Academic Honesty Statement (see first page of HW Description):</t>
+  </si>
+  <si>
+    <t>This homework represents my own work. I understand that I may receive help, but I did not copy any portion of this assignment from anywhere. I understand that a violation of this will result in a Report of Academic Dishonesty.—Megan Johnson</t>
   </si>
 </sst>
 </file>
@@ -434,12 +447,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -452,6 +459,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -737,38 +750,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="54.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="38.109375" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="38.140625" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="93" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="10"/>
-      <c r="B2" s="11"/>
-    </row>
-    <row r="3" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="93" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="17"/>
+    </row>
+    <row r="3" spans="1:10" ht="71.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>22</v>
       </c>
@@ -780,7 +795,7 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F7" s="5" t="s">
         <v>71</v>
       </c>
@@ -797,7 +812,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
@@ -824,7 +839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>24</v>
@@ -855,7 +870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>19</v>
       </c>
@@ -880,7 +895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -908,7 +923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -936,7 +951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -944,27 +959,27 @@
         <v>4</v>
       </c>
       <c r="C13" s="4"/>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="11">
         <f>COUNTIF(C79:C87,"=C")</f>
         <v>0</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H13" s="11">
         <f>COUNTIF(C79:C87,"=I")+COUNTIF(C79:C87,"")</f>
         <v>9</v>
       </c>
-      <c r="I13" s="14">
+      <c r="I13" s="12">
         <f>G13/COUNTA($B$79:$B$87)</f>
         <v>0</v>
       </c>
-      <c r="J13" s="14">
+      <c r="J13" s="12">
         <f>H13/COUNTA($B$79:$B$87)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -972,27 +987,27 @@
         <v>6</v>
       </c>
       <c r="C14" s="4"/>
-      <c r="F14" s="15" t="s">
+      <c r="F14" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G14" s="14">
         <f>SUM(G8:G13)</f>
         <v>0</v>
       </c>
-      <c r="H14" s="16">
+      <c r="H14" s="14">
         <f>SUM(H8:H13)</f>
         <v>58</v>
       </c>
-      <c r="I14" s="17">
+      <c r="I14" s="15">
         <f>G14/SUM($G$14:$H$14)</f>
         <v>0</v>
       </c>
-      <c r="J14" s="17">
+      <c r="J14" s="15">
         <f>H14/SUM($G$14:$H$14)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -1001,7 +1016,7 @@
       </c>
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -1010,7 +1025,7 @@
       </c>
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -1019,7 +1034,7 @@
       </c>
       <c r="C17" s="4"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -1028,7 +1043,7 @@
       </c>
       <c r="C18" s="4"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -1037,7 +1052,7 @@
       </c>
       <c r="C19" s="4"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -1046,7 +1061,7 @@
       </c>
       <c r="C20" s="4"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -1055,7 +1070,7 @@
       </c>
       <c r="C21" s="4"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -1064,7 +1079,7 @@
       </c>
       <c r="C22" s="4"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -1073,7 +1088,7 @@
       </c>
       <c r="C23" s="4"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>14</v>
       </c>
@@ -1082,7 +1097,7 @@
       </c>
       <c r="C24" s="4"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -1091,7 +1106,7 @@
       </c>
       <c r="C25" s="4"/>
     </row>
-    <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>33</v>
       </c>
@@ -1099,7 +1114,7 @@
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
         <v>24</v>
@@ -1111,19 +1126,19 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>31</v>
       </c>
       <c r="C30" s="4"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>32</v>
       </c>
       <c r="C31" s="4"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>14</v>
       </c>
@@ -1132,7 +1147,7 @@
       </c>
       <c r="C32" s="4"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>14</v>
       </c>
@@ -1141,7 +1156,7 @@
       </c>
       <c r="C33" s="4"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -1150,7 +1165,7 @@
       </c>
       <c r="C34" s="4"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -1159,7 +1174,7 @@
       </c>
       <c r="C35" s="4"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -1168,7 +1183,7 @@
       </c>
       <c r="C36" s="4"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -1177,7 +1192,7 @@
       </c>
       <c r="C37" s="4"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -1186,7 +1201,7 @@
       </c>
       <c r="C38" s="4"/>
     </row>
-    <row r="41" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>34</v>
       </c>
@@ -1194,7 +1209,7 @@
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
         <v>24</v>
@@ -1206,13 +1221,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>45</v>
       </c>
       <c r="C43" s="4"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -1221,7 +1236,7 @@
       </c>
       <c r="C44" s="4"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>5</v>
       </c>
@@ -1230,7 +1245,7 @@
       </c>
       <c r="C45" s="4"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>2</v>
       </c>
@@ -1239,7 +1254,7 @@
       </c>
       <c r="C46" s="4"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>0</v>
       </c>
@@ -1248,7 +1263,7 @@
       </c>
       <c r="C47" s="4"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>0</v>
       </c>
@@ -1257,7 +1272,7 @@
       </c>
       <c r="C48" s="4"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>0</v>
       </c>
@@ -1266,7 +1281,7 @@
       </c>
       <c r="C49" s="4"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>0</v>
       </c>
@@ -1275,7 +1290,7 @@
       </c>
       <c r="C50" s="4"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>0</v>
       </c>
@@ -1284,7 +1299,7 @@
       </c>
       <c r="C51" s="4"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>14</v>
       </c>
@@ -1293,7 +1308,7 @@
       </c>
       <c r="C52" s="4"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>14</v>
       </c>
@@ -1302,7 +1317,7 @@
       </c>
       <c r="C53" s="4"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>14</v>
       </c>
@@ -1311,7 +1326,7 @@
       </c>
       <c r="C54" s="4"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>5</v>
       </c>
@@ -1328,7 +1343,7 @@
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="1" t="s">
         <v>24</v>
@@ -1340,7 +1355,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>47</v>
       </c>
@@ -1349,7 +1364,7 @@
       </c>
       <c r="C60" s="4"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>49</v>
       </c>
@@ -1358,7 +1373,7 @@
       </c>
       <c r="C61" s="4"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>0</v>
       </c>
@@ -1375,7 +1390,7 @@
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="1" t="s">
         <v>24</v>
@@ -1387,13 +1402,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
         <v>60</v>
       </c>
       <c r="C67" s="4"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>2</v>
       </c>
@@ -1402,7 +1417,7 @@
       </c>
       <c r="C68" s="4"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>5</v>
       </c>
@@ -1411,7 +1426,7 @@
       </c>
       <c r="C69" s="4"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>5</v>
       </c>
@@ -1420,7 +1435,7 @@
       </c>
       <c r="C70" s="4"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>5</v>
       </c>
@@ -1429,7 +1444,7 @@
       </c>
       <c r="C71" s="4"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>57</v>
       </c>
@@ -1438,7 +1453,7 @@
       </c>
       <c r="C72" s="4"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>57</v>
       </c>
@@ -1447,7 +1462,7 @@
       </c>
       <c r="C73" s="4"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>5</v>
       </c>
@@ -1464,7 +1479,7 @@
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="B78" s="1" t="s">
         <v>24</v>
@@ -1476,55 +1491,55 @@
         <v>23</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
         <v>62</v>
       </c>
       <c r="C79" s="4"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
         <v>63</v>
       </c>
       <c r="C80" s="4"/>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
         <v>64</v>
       </c>
       <c r="C81" s="4"/>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
         <v>65</v>
       </c>
       <c r="C82" s="4"/>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
         <v>66</v>
       </c>
       <c r="C83" s="4"/>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
         <v>67</v>
       </c>
       <c r="C84" s="4"/>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
         <v>68</v>
       </c>
       <c r="C85" s="4"/>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B86" t="s">
         <v>69</v>
       </c>
       <c r="C86" s="4"/>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
         <v>70</v>
       </c>
